--- a/Advance 3/Exercise 8/BOM - Alfredo Avila Gonzalez.xlsx
+++ b/Advance 3/Exercise 8/BOM - Alfredo Avila Gonzalez.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aavila/Dropbox/U/Sistemas Colaborativos I/Semana 8/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5B789C1-980E-5746-84DB-8EF1FEADBC46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF75353-C457-CF43-BC74-4A5EC49F74A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{643D1BC4-DD45-0D4F-99FE-EB4411DDB912}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{643D1BC4-DD45-0D4F-99FE-EB4411DDB912}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Logical Platform" sheetId="1" r:id="rId1"/>
+    <sheet name="Logical Network Platform" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
   <si>
     <t>Component</t>
   </si>
@@ -112,13 +113,62 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>Cost</t>
-  </si>
-  <si>
-    <t>$0,10/h</t>
-  </si>
-  <si>
-    <t>$7632/h</t>
+    <t>Infrastructure Cost</t>
+  </si>
+  <si>
+    <t>$7.194/h</t>
+  </si>
+  <si>
+    <t>$0.10/h</t>
+  </si>
+  <si>
+    <t>Internet Gateway</t>
+  </si>
+  <si>
+    <t>CloudFront DNS</t>
+  </si>
+  <si>
+    <t>CloudFront WAF</t>
+  </si>
+  <si>
+    <t>API Gateway</t>
+  </si>
+  <si>
+    <t>Fully managed service that makes it easy for developers to create, publish, maintain, monitor, and secure APIs at any scale. APIs act as the "front door" for applications to access data, business logic, or functionality from your backend services. Using API Gateway, you can create RESTful APIs and WebSocket APIs that enable real-time two-way communication applications.</t>
+  </si>
+  <si>
+    <t>Web application firewall that helps protect your web applications or APIs against common web exploits that may affect availability, compromise security, or consume excessive resources.</t>
+  </si>
+  <si>
+    <t>Fast content delivery network (CDN) service that securely delivers data, videos, applications, and APIs to customers globally with low latency, high transfer speeds, all within a developer-friendly environment.</t>
+  </si>
+  <si>
+    <t>Horizontally scaled, redundant, and highly available VPC component that allows communication between your VPC and the internet.</t>
+  </si>
+  <si>
+    <t>#43243</t>
+  </si>
+  <si>
+    <t>#54354</t>
+  </si>
+  <si>
+    <t>#56456</t>
+  </si>
+  <si>
+    <t>#76765</t>
+  </si>
+  <si>
+    <t>$1/300M</t>
+  </si>
+  <si>
+    <t>$6+-/h + 
+$0.6/1M Req</t>
+  </si>
+  <si>
+    <t>$0.4/1M</t>
+  </si>
+  <si>
+    <t>$0.015/h per ENI</t>
   </si>
 </sst>
 </file>
@@ -510,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15DFF416-1122-1D45-9572-B110523A1F0C}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="199" zoomScaleNormal="199" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScale="199" zoomScaleNormal="199" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -523,7 +573,8 @@
     <col min="3" max="3" width="21.6640625" customWidth="1"/>
     <col min="4" max="4" width="24.33203125" customWidth="1"/>
     <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="7" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -592,7 +643,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -638,7 +689,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -686,14 +737,143 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{372BEF80-933B-7B45-B36A-A717BFBD411A}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="40" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="153" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Advance 3/Exercise 8/BOM - Alfredo Avila Gonzalez.xlsx
+++ b/Advance 3/Exercise 8/BOM - Alfredo Avila Gonzalez.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aavila/Dropbox/U/Sistemas Colaborativos I/Semana 8/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF75353-C457-CF43-BC74-4A5EC49F74A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDA6B0A-DF12-EF4A-AE38-A74F89025F38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{643D1BC4-DD45-0D4F-99FE-EB4411DDB912}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Logical Platform" sheetId="1" r:id="rId1"/>
     <sheet name="Logical Network Platform" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
   <si>
     <t>Component</t>
   </si>
@@ -168,7 +168,33 @@
     <t>$0.4/1M</t>
   </si>
   <si>
-    <t>$0.015/h per ENI</t>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Yearly Cost $$ (600M Transactions)</t>
+  </si>
+  <si>
+    <t>$0.045/h per ENI x 2</t>
+  </si>
+  <si>
+    <t>Cost per Million</t>
+  </si>
+  <si>
+    <t>Increase Margin
+ per Million</t>
+  </si>
+  <si>
+    <t>Ops</t>
+  </si>
+  <si>
+    <t>Internal Service Price</t>
+  </si>
+  <si>
+    <t>Customer Price</t>
+  </si>
+  <si>
+    <t>Infrastructure Cost 
+600M per Year</t>
   </si>
 </sst>
 </file>
@@ -192,7 +218,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -228,11 +254,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -245,6 +295,28 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -560,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15DFF416-1122-1D45-9572-B110523A1F0C}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView zoomScale="199" zoomScaleNormal="199" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -575,9 +647,10 @@
     <col min="5" max="5" width="17.5" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" customWidth="1"/>
     <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="8" max="8" width="32.6640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -599,8 +672,11 @@
       <c r="G1" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H1" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -622,8 +698,11 @@
       <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -645,8 +724,12 @@
       <c r="G3" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="H3" s="1">
+        <f>1249.9*12</f>
+        <v>14998.800000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -668,40 +751,53 @@
       <c r="G4" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="3">
         <v>1</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" s="1">
+        <f>672.73*12</f>
+        <v>8072.76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1">
+        <f>H5+H4+H3+H2</f>
+        <v>23071.56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -710,7 +806,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -719,7 +815,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -728,7 +824,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -744,10 +840,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{372BEF80-933B-7B45-B36A-A717BFBD411A}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -758,9 +854,10 @@
     <col min="4" max="4" width="24.33203125" customWidth="1"/>
     <col min="5" max="5" width="17.5" customWidth="1"/>
     <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="8" max="8" width="32.6640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -779,11 +876,14 @@
       <c r="F1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="153" x14ac:dyDescent="0.2">
+      <c r="H1" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="153" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
@@ -802,11 +902,15 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="H2" s="1">
+        <f>2*12</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -825,11 +929,15 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="10" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="H3" s="1">
+        <f>59*12</f>
+        <v>708</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -848,11 +956,15 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="9" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="H4" s="1">
+        <f>223.5*12</f>
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -871,8 +983,81 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="1">
+        <f>0.045*730.001*12</f>
+        <v>394.20053999999993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
         <v>42</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="1">
+        <f>H5+H4+H3+H2</f>
+        <v>3808.2005399999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="1">
+        <f>4000 / 600</f>
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="G8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="1">
+        <f>6.7*0.25</f>
+        <v>1.675</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="1">
+        <f>6.7*0.1</f>
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="1">
+        <f>6.7+H9+H8</f>
+        <v>9.0449999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="1">
+        <f>9.05</f>
+        <v>9.0500000000000007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="G12" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="1">
+        <f>H11*600</f>
+        <v>5430</v>
       </c>
     </row>
   </sheetData>
